--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0623BE0-A57D-5A4D-80C0-08D42927AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25812" windowHeight="14028"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$26</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -207,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,21 +559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.44140625" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -565,7 +581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -581,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -589,7 +605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -597,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -605,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -613,7 +629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -621,7 +637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -629,12 +645,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -666,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -692,7 +708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -718,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -744,7 +760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -767,7 +783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -796,7 +812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -825,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -854,7 +870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -880,7 +896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -909,7 +925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -938,7 +954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -967,12 +983,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24">
-        <v>0.50531999999999999</v>
+        <v>-0.50531999999999999</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -996,12 +1012,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
-        <v>0.22848000000000002</v>
+        <v>-0.22847999999999999</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1025,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1055,6 +1071,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0623BE0-A57D-5A4D-80C0-08D42927AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710E4D6-8A17-BE4B-9A51-9F74F63414F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="84">
   <si>
     <t>Activity</t>
   </si>
@@ -91,9 +91,6 @@
     <t>biosphere</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Carbon dioxide, fossil</t>
   </si>
   <si>
@@ -160,15 +157,9 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
-    <t>ENTSO-E</t>
-  </si>
-  <si>
     <t>kilowatt hour</t>
   </si>
   <si>
-    <t>updated UCTE medium voltage supply with ENTSO-E high voltage supply due to updates in ecoinvent</t>
-  </si>
-  <si>
     <t>electricity, medium voltage</t>
   </si>
   <si>
@@ -199,18 +190,12 @@
     <t>water, deionised</t>
   </si>
   <si>
-    <t>Originally in megajoule. LHV: 120 MJ/kg.</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
     <t>Europe, without Russia and Turkey</t>
   </si>
   <si>
-    <t>Wokaun A, Wilhelm E, Schenler W, Simons A, Bauer C, Bond S, et al. Transition to hydrogen - pathways toward clean transportation. New York: Cambridge University Press; 2011</t>
-  </si>
-  <si>
     <t>Hydrogen from coal Gasification</t>
   </si>
   <si>
@@ -218,6 +203,91 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
+  </si>
+  <si>
+    <t>Originally: Wokaun A, Wilhelm E, Schenler W, Simons A, Bauer C, Bond S, et al. Transition to hydrogen - pathways toward clean transportation. New York: Cambridge University Press; 2011
+Updated with: Jiaquan Li, Yi-Ming Wei, Lancui Liu, Xiaoyu Li, Rui Yan, The carbon footprint and cost of coal-based hydrogen production with and without carbon capture and storage technology in China, Journal of Cleaner Production, 2022, https://doi.org/10.1016/j.jclepro.2022.132514.</t>
+  </si>
+  <si>
+    <t>Originally in megajoule. LHV: 120 MJ/kg. Originally: Wokaun A, Wilhelm E, Schenler W, Simons A, Bauer C, Bond S, et al. Transition to hydrogen - pathways toward clean transportation. New York: Cambridge University Press; 2011. Updated with: Jiaquan Li, Yi-Ming Wei, Lancui Liu, Xiaoyu Li, Rui Yan, The carbon footprint and cost of coal-based hydrogen production with and without carbon capture and storage technology in China, Journal of Cleaner Production, 2022, https://doi.org/10.1016/j.jclepro.2022.132514.</t>
+  </si>
+  <si>
+    <t>From Wokaun et al., 2011.</t>
+  </si>
+  <si>
+    <t>From Li et al., 2022.</t>
+  </si>
+  <si>
+    <t>market for aluminium oxide, metallurgical</t>
+  </si>
+  <si>
+    <t>IAI Area, EU27 &amp; EFTA</t>
+  </si>
+  <si>
+    <t>aluminium oxide, metallurgical</t>
+  </si>
+  <si>
+    <t>methanol distillation, hydrogen from coal gasification</t>
+  </si>
+  <si>
+    <t>methanol, purified</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, capacity 1E9l/year</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>wastewater, average</t>
+  </si>
+  <si>
+    <t>From Li et al., 2022. For CCS.</t>
+  </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
+  <si>
+    <t>From Li et al., 2022. For CCS. Originally called "cooling water", hence, may be from river or even the sea.</t>
+  </si>
+  <si>
+    <t>market for ammonia, anhydrous, liquid</t>
+  </si>
+  <si>
+    <t>ammonia, anhydrous, liquid</t>
+  </si>
+  <si>
+    <t>nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>Volkart et al., 2013</t>
+  </si>
+  <si>
+    <t>Originally in megajoule. LHV: 120 MJ/kg. Originally: Wokaun A, Wilhelm E, Schenler W, Simons A, Bauer C, Bond S, et al. Transition to hydrogen - pathways toward clean transportation. New York: Cambridge University Press; 2011. Updated with: Jiaquan Li, Yi-Ming Wei, Lancui Liu, Xiaoyu Li, Rui Yan, The carbon footprint and cost of coal-based hydrogen production with and without carbon capture and storage technology in China, Journal of Cleaner Production, 2022, https://doi.org/10.1016/j.jclepro.2022.132514. Li et al., 2022, is based on an existing plant in China, and an existing CCS project in China. CO2 transport and storage is from Volkart et al., 2013.</t>
+  </si>
+  <si>
+    <t>Water, cooling, unspecified natural origin</t>
+  </si>
+  <si>
+    <t>natural resource::in water</t>
+  </si>
+  <si>
+    <t>From Li et al., 2022. For CCS. Originally called "desalted water", hence, desalination process is missing.</t>
+  </si>
+  <si>
+    <t>CO2 storage/hard coal, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant</t>
   </si>
 </sst>
 </file>
@@ -275,11 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,25 +632,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -586,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -602,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -626,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -634,15 +708,15 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -682,293 +756,295 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B13">
-        <v>6.9264000000000001E-3</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>5.7720000000000003E-5</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>18.024000000000001</v>
+        <v>10.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1502</v>
+        <v>7.7829999999999996E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>1.0375199999999999E-2</v>
+        <v>6.9971999999999994E-10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8.6459999999999996E-5</v>
+        <v>5.8309999999999997E-12</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.16752</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1.3960000000000001E-3</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>6.9971999999999994E-10</v>
+        <v>3.9743999999999998E-9</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.8309999999999997E-12</v>
+        <v>3.3119999999999998E-11</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>0.16752</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
+        <v>8.9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.3960000000000001E-3</v>
+        <v>5.6059999999999999E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>3.9743999999999998E-9</v>
+        <v>1.1397599999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.3119999999999998E-11</v>
+        <v>9.4979999999999995E-3</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>6.7271999999999998</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.6059999999999999E-2</v>
+        <v>2.3179999999999999E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>1.1397599999999999</v>
+        <f>0.98/1000</f>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>9.4979999999999995E-3</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B22">
-        <v>2.7816000000000001</v>
+        <f>4.44/1000</f>
+        <v>4.4400000000000004E-3</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>2.3179999999999999E-2</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>0.42432000000000003</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -977,27 +1053,27 @@
         <v>3.5360000000000001E-3</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>-0.50531999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1006,27 +1082,27 @@
         <v>4.2110000000000003E-3</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>-0.22847999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1035,43 +1111,828 @@
         <v>1.9040000000000001E-3</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="5">
+        <f>-36.07/1000</f>
+        <v>-3.6069999999999998E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>6.9264000000000001E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>5.7720000000000003E-5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>17.77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.1502</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>1.0375199999999999E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>8.6459999999999996E-5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>10.5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>7.7829999999999996E-2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <f>32/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>10.24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <f>0.008*1.2</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <f>0.057/1000</f>
+        <v>5.7000000000000003E-5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>6.9971999999999994E-10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>5.8309999999999997E-12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48">
+        <v>0.16752</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1.3960000000000001E-3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>3.9743999999999998E-9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3.3119999999999998E-11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <v>8.9</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26">
-        <v>9.339599999999999</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>5.6059999999999999E-2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>1.1397599999999999</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>7.7829999999999996E-2</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>9.4979999999999995E-3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2.3179999999999999E-2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53">
+        <v>3.36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>2.3179999999999999E-2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <f>0.98/1000</f>
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <f>4.44/1000</f>
+        <v>4.4400000000000004E-3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>0.42432000000000003</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>3.5360000000000001E-3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>-0.50531999999999999</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>4.2110000000000003E-3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>-0.22847999999999999</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1.9040000000000001E-3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="5">
+        <f>(-36.07/1000)+(-79/1000)</f>
+        <v>-0.11507000000000001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>6.9264000000000001E-3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>5.7720000000000003E-5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>18</v>
       </c>
-      <c r="J26" t="s">
-        <v>53</v>
+      <c r="B61">
+        <v>2.48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.1502</v>
+      </c>
+      <c r="I61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>1.0375199999999999E-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>8.6459999999999996E-5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63">
+        <f>17.77-B61</f>
+        <v>15.29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710E4D6-8A17-BE4B-9A51-9F74F63414F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6CE4A9-3F63-954E-8BFC-F29249B2DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,12 +345,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -635,7 +634,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,7 +714,7 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1121,7 +1120,7 @@
       <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <f>-36.07/1000</f>
         <v>-3.6069999999999998E-2</v>
       </c>
@@ -1279,7 +1278,7 @@
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1559,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="B50">
-        <v>8.9</v>
+        <v>6.7709999999999999</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>52</v>
@@ -1809,7 +1808,7 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <f>(-36.07/1000)+(-79/1000)</f>
         <v>-0.11507000000000001</v>
       </c>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6CE4A9-3F63-954E-8BFC-F29249B2DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F0737-6B11-0D43-A8E2-8B6416514EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37940" yWindow="1840" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="104">
   <si>
     <t>Activity</t>
   </si>
@@ -288,13 +288,78 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant</t>
+  </si>
+  <si>
+    <t>LHV: 19.9 MJ/kg</t>
+  </si>
+  <si>
+    <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>Adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019</t>
+  </si>
+  <si>
+    <t>Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway. Christoph Hank, Lukas Lazar, Franz Mantei, Mohamed Ouda, Robin J. White, Tom Smolinka, Achim Schaadt, Christopher Hebling and Hans-Martin Henning. 2019. https://doi.org/10.1039/C9SE00658C</t>
+  </si>
+  <si>
+    <t>methanol, unpurified</t>
+  </si>
+  <si>
+    <t>steam production, as energy carrier, in chemical industry</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>heat, from steam, in chemical industry</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>methanol production facility, construction</t>
+  </si>
+  <si>
+    <t>Adapted from Comparative well-to-wheel life cycle assessment of
+OME3–5 synfuel production via the power-to-liquid
+pathway, Hank et al. 2019</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>market for zinc oxide</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>zinc oxide</t>
+  </si>
+  <si>
+    <t>market for copper oxide</t>
+  </si>
+  <si>
+    <t>copper oxide</t>
+  </si>
+  <si>
+    <t>methanol synthesis, hydrogen from coal gasification</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, fossil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +389,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,12 +418,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1930,6 +2005,509 @@
         <v>82</v>
       </c>
     </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79">
+        <v>3.5098030277376187</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>0.13206758828730655</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
+        <v>1.6694063119110985E-6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>12.456827894327896</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f>12.89</f>
+        <v>12.89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="6">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="6">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6">
+        <f>356/44900000</f>
+        <v>7.9287305122494425E-6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="6">
+        <f>949/44900000</f>
+        <v>2.11358574610245E-5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="6">
+        <f>178/44900000</f>
+        <v>3.9643652561247212E-6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="6">
+        <f>6240000/44900000</f>
+        <v>0.13897550111358575</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="4">
+        <f>-B96/1000</f>
+        <v>-6.8819599109131407E-2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F0737-6B11-0D43-A8E2-8B6416514EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D50224-7A3C-5646-808C-FFD55C1A7CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="1840" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37940" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="105">
   <si>
     <t>Activity</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -359,9 +362,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -418,14 +428,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,8 +760,8 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
+      <c r="B5" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -849,8 +860,8 @@
       <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>54</v>
+      <c r="J13" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1313,8 +1324,8 @@
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>54</v>
+      <c r="B33" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1413,8 +1424,8 @@
       <c r="I41" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>54</v>
+      <c r="J41" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D50224-7A3C-5646-808C-FFD55C1A7CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE86ED-BE2E-924F-AC00-99F66260508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -284,9 +284,6 @@
     <t>From Li et al., 2022. For CCS. Originally called "desalted water", hence, desalination process is missing.</t>
   </si>
   <si>
-    <t>CO2 storage/hard coal, post, pipeline 200km, storage 1000m</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
     </row>
     <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>21</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B63">
         <f>17.77-B61</f>
@@ -2013,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="J63" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2093,7 +2093,7 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2162,12 +2162,12 @@
         <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79">
         <v>3.5098030277376187</v>
@@ -2176,13 +2176,13 @@
         <v>70</v>
       </c>
       <c r="D79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
         <v>90</v>
-      </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -2196,7 +2196,7 @@
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81">
         <v>1.6694063119110985E-6</v>
@@ -2213,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>12.456827894327896</v>
@@ -2236,7 +2236,7 @@
         <v>24</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2292,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2348,12 +2348,12 @@
         <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95">
         <f>12.89</f>
@@ -2369,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="6">
         <f>(13600*1000)/44900000</f>
@@ -2411,40 +2411,40 @@
         <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="6">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
       <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
         <v>98</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="6">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -2453,7 +2453,7 @@
         <v>24</v>
       </c>
       <c r="G99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE86ED-BE2E-924F-AC00-99F66260508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB325066-9DD3-4F46-946E-8C9C3DC5E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="105">
   <si>
     <t>Activity</t>
   </si>
@@ -352,7 +352,7 @@
     <t>hydrogen, gaseous, 30 bar</t>
   </si>
   <si>
-    <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
+    <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 400km, storage 3000m</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1368,12 +1368,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1393,19 +1393,13 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1421,14 +1415,14 @@
       <c r="F41" t="s">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
+      <c r="G41" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1444,20 +1438,14 @@
       <c r="F42" t="s">
         <v>24</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>7.7829999999999996E-2</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="G42" t="s">
         <v>59</v>
       </c>
-      <c r="J42" t="s">
+      <c r="H42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1477,11 +1465,11 @@
       <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s">
+      <c r="G43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1497,14 +1485,14 @@
       <c r="F44" t="s">
         <v>24</v>
       </c>
-      <c r="I44" t="s">
+      <c r="G44" t="s">
         <v>81</v>
       </c>
-      <c r="J44" t="s">
+      <c r="H44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -1521,14 +1509,14 @@
       <c r="F45" t="s">
         <v>24</v>
       </c>
-      <c r="I45" t="s">
+      <c r="G45" t="s">
         <v>72</v>
       </c>
-      <c r="J45" t="s">
+      <c r="H45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -1545,14 +1533,14 @@
       <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="I46" t="s">
+      <c r="G46" t="s">
         <v>72</v>
       </c>
-      <c r="J46" t="s">
+      <c r="H46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1568,20 +1556,14 @@
       <c r="F47" t="s">
         <v>24</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>5.8309999999999997E-12</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47" t="s">
         <v>25</v>
       </c>
-      <c r="J47" t="s">
+      <c r="H47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1597,20 +1579,14 @@
       <c r="F48" t="s">
         <v>24</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1.3960000000000001E-3</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="G48" t="s">
         <v>58</v>
       </c>
-      <c r="J48" t="s">
+      <c r="H48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1626,20 +1602,14 @@
       <c r="F49" t="s">
         <v>24</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>3.3119999999999998E-11</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G49" t="s">
         <v>31</v>
       </c>
-      <c r="J49" t="s">
+      <c r="H49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1655,20 +1625,14 @@
       <c r="F50" t="s">
         <v>24</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>5.6059999999999999E-2</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="J50" t="s">
+      <c r="H50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1648,14 @@
       <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>9.4979999999999995E-3</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G51" t="s">
         <v>58</v>
       </c>
-      <c r="J51" t="s">
+      <c r="H51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1713,20 +1671,14 @@
       <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>2.3179999999999999E-2</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" t="s">
         <v>59</v>
       </c>
-      <c r="J52" t="s">
+      <c r="H52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1742,20 +1694,14 @@
       <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>2.3179999999999999E-2</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G53" t="s">
         <v>68</v>
       </c>
-      <c r="J53" t="s">
+      <c r="H53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1772,14 +1718,14 @@
       <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="I54" t="s">
+      <c r="G54" t="s">
         <v>59</v>
       </c>
-      <c r="J54" t="s">
+      <c r="H54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1796,14 +1742,14 @@
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="I55" t="s">
+      <c r="G55" t="s">
         <v>59</v>
       </c>
-      <c r="J55" t="s">
+      <c r="H55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -1819,20 +1765,14 @@
       <c r="F56" t="s">
         <v>24</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>3.5360000000000001E-3</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="G56" t="s">
         <v>58</v>
       </c>
-      <c r="J56" t="s">
+      <c r="H56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -1848,20 +1788,14 @@
       <c r="F57" t="s">
         <v>24</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>4.2110000000000003E-3</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G57" t="s">
         <v>58</v>
       </c>
-      <c r="J57" t="s">
+      <c r="H57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1877,20 +1811,14 @@
       <c r="F58" t="s">
         <v>24</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1.9040000000000001E-3</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G58" t="s">
         <v>58</v>
       </c>
-      <c r="J58" t="s">
+      <c r="H58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1907,14 +1835,14 @@
       <c r="F59" t="s">
         <v>24</v>
       </c>
-      <c r="I59" t="s">
+      <c r="G59" t="s">
         <v>68</v>
       </c>
-      <c r="J59" t="s">
+      <c r="H59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1930,17 +1858,11 @@
       <c r="F60" t="s">
         <v>17</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>5.7720000000000003E-5</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1956,17 +1878,11 @@
       <c r="F61" t="s">
         <v>17</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0.1502</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="G61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1982,17 +1898,11 @@
       <c r="F62" t="s">
         <v>17</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>8.6459999999999996E-5</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2009,10 +1919,10 @@
       <c r="F63" t="s">
         <v>24</v>
       </c>
-      <c r="I63" t="s">
+      <c r="G63" t="s">
         <v>77</v>
       </c>
-      <c r="J63" t="s">
+      <c r="H63" t="s">
         <v>104</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB325066-9DD3-4F46-946E-8C9C3DC5E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19933C8-544C-E948-92C4-A37A35CAC27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50002488-33AF-EF4A-BEE9-33009510AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3F5E6-849C-9844-AA8E-18ADF59ACBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1240" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
   <si>
     <t>Activity</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 400km, storage 3000m</t>
+  </si>
+  <si>
+    <t>Originally 8.99 kg coal/kg H2 in Li et al., 2022, we remove the supply chain losses to match the stoichiometric CO2 emissions of the process, since coal losses are already included in the upstream coal mining and supply datasets.</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,6 +440,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,7 +804,7 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -985,7 +989,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>8.9</v>
+        <v>6.7709999999999999</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
@@ -1003,7 +1007,7 @@
         <v>5.6059999999999999E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
         <v>34</v>
@@ -1364,7 +1368,7 @@
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1623,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="H50" t="s">
         <v>34</v>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3F5E6-849C-9844-AA8E-18ADF59ACBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2043E-1AC7-F74D-9C8F-E56A90E07EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="89">
   <si>
     <t>Activity</t>
   </si>
@@ -121,9 +121,6 @@
     <t>lime production, milled, packed</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>lime, packed</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>treatment of hard coal ash, residual material landfill</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>hard coal ash</t>
   </si>
   <si>
@@ -193,16 +187,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>Europe, without Russia and Turkey</t>
-  </si>
-  <si>
     <t>Hydrogen from coal Gasification</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>Originally: Wokaun A, Wilhelm E, Schenler W, Simons A, Bauer C, Bond S, et al. Transition to hydrogen - pathways toward clean transportation. New York: Cambridge University Press; 2011
@@ -242,9 +227,6 @@
     <t>wastewater, average</t>
   </si>
   <si>
-    <t>From Li et al., 2022. For CCS.</t>
-  </si>
-  <si>
     <t>market for tap water</t>
   </si>
   <si>
@@ -252,39 +234,6 @@
   </si>
   <si>
     <t>tap water</t>
-  </si>
-  <si>
-    <t>From Li et al., 2022. For CCS. Originally called "cooling water", hence, may be from river or even the sea.</t>
-  </si>
-  <si>
-    <t>market for ammonia, anhydrous, liquid</t>
-  </si>
-  <si>
-    <t>ammonia, anhydrous, liquid</t>
-  </si>
-  <si>
-    <t>nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>market for nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>Volkart et al., 2013</t>
-  </si>
-  <si>
-    <t>Originally in megajoule. LHV: 120 MJ/kg. Originally: Wokaun A, Wilhelm E, Schenler W, Simons A, Bauer C, Bond S, et al. Transition to hydrogen - pathways toward clean transportation. New York: Cambridge University Press; 2011. Updated with: Jiaquan Li, Yi-Ming Wei, Lancui Liu, Xiaoyu Li, Rui Yan, The carbon footprint and cost of coal-based hydrogen production with and without carbon capture and storage technology in China, Journal of Cleaner Production, 2022, https://doi.org/10.1016/j.jclepro.2022.132514. Li et al., 2022, is based on an existing plant in China, and an existing CCS project in China. CO2 transport and storage is from Volkart et al., 2013.</t>
-  </si>
-  <si>
-    <t>Water, cooling, unspecified natural origin</t>
-  </si>
-  <si>
-    <t>natural resource::in water</t>
-  </si>
-  <si>
-    <t>From Li et al., 2022. For CCS. Originally called "desalted water", hence, desalination process is missing.</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant</t>
   </si>
   <si>
     <t>LHV: 19.9 MJ/kg</t>
@@ -349,13 +298,13 @@
     <t>Carbon monoxide, fossil</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 400km, storage 3000m</t>
-  </si>
-  <si>
     <t>Originally 8.99 kg coal/kg H2 in Li et al., 2022, we remove the supply chain losses to match the stoichiometric CO2 emissions of the process, since coal losses are already included in the upstream coal mining and supply datasets.</t>
+  </si>
+  <si>
+    <t>hydrogen production, coal gasification</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
   </si>
 </sst>
 </file>
@@ -365,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +340,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,16 +373,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,10 +678,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -749,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -764,8 +704,8 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>103</v>
+      <c r="B5" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -789,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -797,15 +737,15 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -847,13 +787,13 @@
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -864,19 +804,19 @@
       <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>103</v>
+      <c r="J13" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>10.5</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -891,10 +831,10 @@
         <v>7.7829999999999996E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -905,7 +845,7 @@
         <v>6.9971999999999994E-10</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -934,7 +874,7 @@
         <v>0.16752</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -949,21 +889,21 @@
         <v>1.3960000000000001E-3</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>3.9743999999999998E-9</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -978,21 +918,21 @@
         <v>3.3119999999999998E-11</v>
       </c>
       <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
         <v>31</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>6.7709999999999999</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
+      <c r="C18" t="s">
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1007,24 +947,24 @@
         <v>5.6059999999999999E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>1.1397599999999999</v>
       </c>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -1036,24 +976,24 @@
         <v>9.4979999999999995E-3</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>4.3899999999999997</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
@@ -1065,22 +1005,22 @@
         <v>2.3179999999999999E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <f>0.98/1000</f>
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1089,22 +1029,22 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <f>4.44/1000</f>
         <v>4.4400000000000004E-3</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1113,24 +1053,24 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
         <v>59</v>
-      </c>
-      <c r="J22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>0.42432000000000003</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
@@ -1142,21 +1082,21 @@
         <v>3.5360000000000001E-3</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>-0.50531999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1171,21 +1111,21 @@
         <v>4.2110000000000003E-3</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>-0.22847999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1200,34 +1140,34 @@
         <v>1.9040000000000001E-3</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="4">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3">
         <f>-36.07/1000</f>
         <v>-3.6069999999999998E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1253,7 +1193,7 @@
         <v>5.7720000000000003E-5</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1279,7 +1219,7 @@
         <v>0.1502</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1305,15 +1245,15 @@
         <v>8.6459999999999996E-5</v>
       </c>
       <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1324,161 +1264,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>103</v>
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G42" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42">
-        <v>10.5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" t="s">
-        <v>50</v>
-      </c>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B43">
-        <f>32/1000</f>
-        <v>3.2000000000000001E-2</v>
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B44">
-        <v>10.24</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -1487,947 +1394,361 @@
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B45">
-        <f>0.008*1.2</f>
-        <v>9.5999999999999992E-3</v>
+        <v>3.5098030277376187</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <f>0.057/1000</f>
-        <v>5.7000000000000003E-5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
+        <v>0.13206758828730655</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
       </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B47">
-        <v>6.9971999999999994E-10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
+        <v>1.6694063119110985E-6</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B48">
-        <v>0.16752</v>
+        <v>12.456827894327896</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49">
-        <v>3.9743999999999998E-9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50">
-        <v>6.7709999999999999</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <f>12.89</f>
+        <v>12.89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5">
+        <f>((3090000*1000)/44900000)</f>
+        <v>68.819599109131403</v>
+      </c>
+      <c r="C62" t="s">
         <v>35</v>
       </c>
-      <c r="B51">
-        <v>1.1397599999999999</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>59</v>
-      </c>
-      <c r="H52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53">
-        <v>3.36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54">
-        <f>0.98/1000</f>
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55">
-        <f>4.44/1000</f>
-        <v>4.4400000000000004E-3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56">
-        <v>0.42432000000000003</v>
-      </c>
-      <c r="C56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57">
-        <v>-0.50531999999999999</v>
-      </c>
-      <c r="C57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58">
-        <v>-0.22847999999999999</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="4">
-        <f>(-36.07/1000)+(-79/1000)</f>
-        <v>-0.11507000000000001</v>
-      </c>
-      <c r="C59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60">
-        <v>6.9264000000000001E-3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61">
-        <v>2.48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62">
-        <v>1.0375199999999999E-2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63">
-        <f>17.77-B61</f>
-        <v>15.29</v>
+        <v>77</v>
+      </c>
+      <c r="B63" s="5">
+        <f>(13600*1000)/44900000</f>
+        <v>0.30289532293986637</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
         <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79">
-        <v>3.5098030277376187</v>
-      </c>
-      <c r="C79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80">
-        <v>0.13206758828730655</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81">
-        <v>1.6694063119110985E-6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82">
-        <v>12.456827894327896</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95">
-        <f>12.89</f>
-        <v>12.89</v>
-      </c>
-      <c r="C95" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>69</v>
-      </c>
-      <c r="B96" s="6">
-        <f>((3090000*1000)/44900000)</f>
-        <v>68.819599109131403</v>
-      </c>
-      <c r="C96" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="6">
-        <f>(13600*1000)/44900000</f>
-        <v>0.30289532293986637</v>
-      </c>
-      <c r="C97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="6">
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
-      <c r="C99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" s="6">
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
-      <c r="C100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="6">
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
-      <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" s="4">
-        <f>-B96/1000</f>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="3">
+        <f>-B62/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
-      <c r="C102" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>67</v>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2043E-1AC7-F74D-9C8F-E56A90E07EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2397449-9B2A-F543-BA31-59B871DFEAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,12 +212,6 @@
     <t>aluminium oxide, metallurgical</t>
   </si>
   <si>
-    <t>methanol distillation, hydrogen from coal gasification</t>
-  </si>
-  <si>
-    <t>methanol, purified</t>
-  </si>
-  <si>
     <t>treatment of wastewater, average, capacity 1E9l/year</t>
   </si>
   <si>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methanol production, coal gasification </t>
+  </si>
+  <si>
+    <t>methanol</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -787,13 +787,13 @@
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -805,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>10.5</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -845,7 +845,7 @@
         <v>6.9971999999999994E-10</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -874,7 +874,7 @@
         <v>0.16752</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -903,7 +903,7 @@
         <v>3.9743999999999998E-9</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -932,7 +932,7 @@
         <v>6.7709999999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -947,7 +947,7 @@
         <v>5.6059999999999999E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
         <v>33</v>
@@ -961,7 +961,7 @@
         <v>1.1397599999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -990,7 +990,7 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1020,7 +1020,7 @@
         <v>9.7999999999999997E-4</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1037,14 +1037,14 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <f>4.44/1000</f>
         <v>4.4400000000000004E-3</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1056,7 +1056,7 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>0.42432000000000003</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -1096,7 +1096,7 @@
         <v>-0.50531999999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         <v>-0.22847999999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1148,17 +1148,17 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3">
         <f>-36.07/1000</f>
         <v>-3.6069999999999998E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
@@ -1167,7 +1167,7 @@
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1359,13 +1359,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -1374,18 +1374,18 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -1394,27 +1394,27 @@
         <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>3.5098030277376187</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s">
         <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47">
         <v>1.6694063119110985E-6</v>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>12.456827894327896</v>
@@ -1468,7 +1468,7 @@
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1524,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1565,13 +1565,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -1580,12 +1580,12 @@
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <f>12.89</f>
@@ -1601,12 +1601,12 @@
         <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5">
         <f>((3090000*1000)/44900000)</f>
@@ -1622,12 +1622,12 @@
         <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="5">
         <f>(13600*1000)/44900000</f>
@@ -1643,19 +1643,19 @@
         <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -1664,19 +1664,19 @@
         <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -1685,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -1711,14 +1711,14 @@
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -1727,12 +1727,12 @@
         <v>24</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="3">
         <f>-B62/1000</f>
@@ -1742,13 +1742,13 @@
         <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
         <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
